--- a/crime_pop_municipio_ordenado.xlsx
+++ b/crime_pop_municipio_ordenado.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Populacao</t>
+          <t>Populacao em 2021</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
